--- a/labs/lab01test.xlsx
+++ b/labs/lab01test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15315" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
+    <t>Лабораторная работа №1</t>
+  </si>
+  <si>
     <t>№п/п</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t>СКП ср.арифм., м =</t>
+  </si>
+  <si>
+    <t>Число степеней свободы =</t>
   </si>
   <si>
     <r>
@@ -628,12 +634,6 @@
   </si>
   <si>
     <t>СКП без сист.погр., м =</t>
-  </si>
-  <si>
-    <t>Число степеней свободы =</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №1</t>
   </si>
 </sst>
 </file>
@@ -786,6 +786,12 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,6 +802,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -803,8 +812,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,21 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1134,399 +1134,399 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A35" sqref="A35:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" hidden="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.25">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.399999999999999">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.399999999999999">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.399999999999999">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.399999999999999">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.399999999999999">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.399999999999999">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.399999999999999">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.399999999999999">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.399999999999999">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.399999999999999">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.399999999999999">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.399999999999999">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.399999999999999">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.399999999999999">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.399999999999999">
-      <c r="A27" s="7">
-        <v>25</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="18">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="18">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="18">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="18">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="18">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="18">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection password="D3B8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CAB2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -1544,7 +1544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1556,7 +1556,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
